--- a/Variables_Analytical_Data.xlsx
+++ b/Variables_Analytical_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/495715c1b5296d13/MB_Magister_ y_ otros/DATA_SCIENCE_UDD/6. CAPSTONE/MANIFESTO_PROJECT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="137" documentId="8_{A23DD782-4668-6845-843B-BDDE6740B239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA03DFBA-30E8-374F-AA5F-AF5672056884}"/>
+  <xr:revisionPtr revIDLastSave="119" documentId="8_{A23DD782-4668-6845-843B-BDDE6740B239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3FECEC4-F40F-5140-977F-6409305822F3}"/>
   <bookViews>
     <workbookView xWindow="340" yWindow="500" windowWidth="28100" windowHeight="16940" xr2:uid="{8FBF2DF0-06EB-D848-B9CF-1FB6A717065A}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
   <si>
     <t>per101</t>
   </si>
@@ -470,25 +470,13 @@
   </si>
   <si>
     <t>per202_1</t>
-  </si>
-  <si>
-    <t>Dominio</t>
-  </si>
-  <si>
-    <t>Columna</t>
-  </si>
-  <si>
-    <t>Descripcion_Dominio</t>
-  </si>
-  <si>
-    <t>Otros</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -498,6 +486,12 @@
     <font>
       <sz val="8"/>
       <name val="ArialMT"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -521,8 +515,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -857,29 +852,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4673C131-828D-9D45-9B63-66333BEA4CE5}">
-  <dimension ref="B1:E66"/>
+  <dimension ref="B2:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5">
-      <c r="C1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E1" t="s">
-        <v>146</v>
-      </c>
-    </row>
     <row r="2" spans="2:5">
       <c r="B2" t="s">
         <v>94</v>
@@ -890,106 +874,79 @@
       <c r="D2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="2:5">
-      <c r="C3" t="s">
-        <v>95</v>
-      </c>
       <c r="D3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:5">
-      <c r="C4" t="s">
-        <v>95</v>
-      </c>
       <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="C5" t="s">
-        <v>95</v>
-      </c>
       <c r="D5" t="s">
         <v>3</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:5">
-      <c r="C6" t="s">
-        <v>95</v>
-      </c>
       <c r="D6" t="s">
         <v>4</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="C7" t="s">
-        <v>95</v>
-      </c>
       <c r="D7" t="s">
         <v>5</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="2:5">
-      <c r="C8" t="s">
-        <v>95</v>
-      </c>
       <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="2:5">
-      <c r="C9" t="s">
-        <v>95</v>
-      </c>
       <c r="D9" t="s">
         <v>7</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="2:5">
-      <c r="C10" t="s">
-        <v>95</v>
-      </c>
       <c r="D10" t="s">
         <v>8</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="2:5">
-      <c r="C11" t="s">
-        <v>95</v>
-      </c>
       <c r="D11" t="s">
         <v>9</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -997,46 +954,37 @@
       <c r="B12" t="s">
         <v>97</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="2:5">
-      <c r="C13" t="s">
-        <v>96</v>
-      </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="2:5">
-      <c r="C14" t="s">
-        <v>96</v>
-      </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" spans="2:5">
-      <c r="C15" t="s">
-        <v>96</v>
-      </c>
       <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1044,57 +992,45 @@
       <c r="B16" t="s">
         <v>99</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D16" t="s">
         <v>28</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="17" spans="2:5">
-      <c r="C17" t="s">
-        <v>98</v>
-      </c>
       <c r="D17" t="s">
         <v>29</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="18" spans="2:5">
-      <c r="C18" t="s">
-        <v>98</v>
-      </c>
       <c r="D18" t="s">
         <v>30</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" spans="2:5">
-      <c r="C19" t="s">
-        <v>98</v>
-      </c>
       <c r="D19" t="s">
         <v>31</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="20" spans="2:5">
-      <c r="C20" t="s">
-        <v>98</v>
-      </c>
       <c r="D20" t="s">
         <v>32</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="1" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1108,172 +1044,127 @@
       <c r="D21" t="s">
         <v>38</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="22" spans="2:5">
-      <c r="C22" t="s">
-        <v>101</v>
-      </c>
       <c r="D22" t="s">
         <v>39</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="23" spans="2:5">
-      <c r="C23" t="s">
-        <v>101</v>
-      </c>
       <c r="D23" t="s">
         <v>40</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="24" spans="2:5">
-      <c r="C24" t="s">
-        <v>101</v>
-      </c>
       <c r="D24" t="s">
         <v>41</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="25" spans="2:5">
-      <c r="C25" t="s">
-        <v>101</v>
-      </c>
       <c r="D25" t="s">
         <v>42</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="26" spans="2:5">
-      <c r="C26" t="s">
-        <v>101</v>
-      </c>
       <c r="D26" t="s">
         <v>43</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="27" spans="2:5">
-      <c r="C27" t="s">
-        <v>101</v>
-      </c>
       <c r="D27" t="s">
         <v>44</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="28" spans="2:5">
-      <c r="C28" t="s">
-        <v>101</v>
-      </c>
       <c r="D28" t="s">
         <v>45</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="29" spans="2:5">
-      <c r="C29" t="s">
-        <v>101</v>
-      </c>
       <c r="D29" t="s">
         <v>46</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="30" spans="2:5">
-      <c r="C30" t="s">
-        <v>101</v>
-      </c>
       <c r="D30" t="s">
         <v>47</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="31" spans="2:5">
-      <c r="C31" t="s">
-        <v>101</v>
-      </c>
       <c r="D31" t="s">
         <v>48</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="32" spans="2:5">
-      <c r="C32" t="s">
-        <v>101</v>
-      </c>
       <c r="D32" t="s">
         <v>49</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="33" spans="2:5">
-      <c r="C33" t="s">
-        <v>101</v>
-      </c>
       <c r="D33" t="s">
         <v>50</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="34" spans="2:5">
-      <c r="C34" t="s">
-        <v>101</v>
-      </c>
       <c r="D34" t="s">
         <v>51</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="35" spans="2:5">
-      <c r="C35" t="s">
-        <v>101</v>
-      </c>
       <c r="D35" t="s">
         <v>52</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="36" spans="2:5">
-      <c r="C36" t="s">
-        <v>101</v>
-      </c>
       <c r="D36" t="s">
         <v>53</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="1" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1281,79 +1172,61 @@
       <c r="B37" t="s">
         <v>103</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="1" t="s">
         <v>102</v>
       </c>
       <c r="D37" t="s">
         <v>70</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="38" spans="2:5">
-      <c r="C38" t="s">
-        <v>102</v>
-      </c>
       <c r="D38" t="s">
         <v>71</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="1" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="39" spans="2:5">
-      <c r="C39" t="s">
-        <v>102</v>
-      </c>
       <c r="D39" t="s">
         <v>72</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="40" spans="2:5">
-      <c r="C40" t="s">
-        <v>102</v>
-      </c>
       <c r="D40" t="s">
         <v>73</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="1" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="41" spans="2:5">
-      <c r="C41" t="s">
-        <v>102</v>
-      </c>
       <c r="D41" t="s">
         <v>74</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="42" spans="2:5">
-      <c r="C42" t="s">
-        <v>102</v>
-      </c>
       <c r="D42" t="s">
         <v>75</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="43" spans="2:5">
-      <c r="C43" t="s">
-        <v>102</v>
-      </c>
       <c r="D43" t="s">
         <v>76</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="1" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1367,84 +1240,63 @@
       <c r="D44" t="s">
         <v>86</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="1" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="45" spans="2:5">
-      <c r="C45" t="s">
-        <v>85</v>
-      </c>
       <c r="D45" t="s">
         <v>87</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="1" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="46" spans="2:5">
-      <c r="C46" t="s">
-        <v>85</v>
-      </c>
       <c r="D46" t="s">
         <v>88</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="1" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="47" spans="2:5">
-      <c r="C47" t="s">
-        <v>85</v>
-      </c>
       <c r="D47" t="s">
         <v>89</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="48" spans="2:5">
-      <c r="C48" t="s">
-        <v>85</v>
-      </c>
       <c r="D48" t="s">
         <v>90</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="1" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="49" spans="2:5">
-      <c r="C49" t="s">
-        <v>85</v>
-      </c>
       <c r="D49" t="s">
         <v>91</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="1" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="50" spans="2:5">
-      <c r="C50" t="s">
-        <v>85</v>
-      </c>
       <c r="D50" t="s">
         <v>92</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="1" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="51" spans="2:5">
-      <c r="C51" t="s">
-        <v>85</v>
-      </c>
       <c r="D51" t="s">
         <v>93</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="1" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1452,170 +1304,125 @@
       <c r="B52" t="s">
         <v>112</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="1" t="s">
         <v>113</v>
       </c>
       <c r="D52" t="s">
         <v>114</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="53" spans="2:5">
-      <c r="C53" t="s">
-        <v>113</v>
-      </c>
       <c r="D53" t="s">
         <v>115</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="1" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="54" spans="2:5">
-      <c r="C54" t="s">
-        <v>113</v>
-      </c>
       <c r="D54" t="s">
         <v>116</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="1" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="55" spans="2:5">
-      <c r="C55" t="s">
-        <v>113</v>
-      </c>
       <c r="D55" t="s">
         <v>117</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="1" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="56" spans="2:5">
-      <c r="C56" t="s">
-        <v>113</v>
-      </c>
       <c r="D56" t="s">
         <v>118</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="1" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="57" spans="2:5">
-      <c r="C57" t="s">
-        <v>113</v>
-      </c>
       <c r="D57" t="s">
         <v>119</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="58" spans="2:5">
-      <c r="B58" t="s">
-        <v>147</v>
-      </c>
-      <c r="C58" t="s">
-        <v>147</v>
-      </c>
-      <c r="D58" t="s">
+    <row r="59" spans="2:5">
+      <c r="D59" t="s">
         <v>126</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E59" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="59" spans="2:5">
-      <c r="C59" t="s">
-        <v>147</v>
-      </c>
-      <c r="D59" t="s">
+    <row r="60" spans="2:5">
+      <c r="D60" t="s">
         <v>136</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E60" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="60" spans="2:5">
-      <c r="C60" t="s">
-        <v>147</v>
-      </c>
-      <c r="D60" t="s">
+    <row r="61" spans="2:5">
+      <c r="D61" t="s">
         <v>129</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E61" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="61" spans="2:5">
-      <c r="C61" t="s">
-        <v>147</v>
-      </c>
-      <c r="D61" t="s">
+    <row r="62" spans="2:5">
+      <c r="D62" t="s">
         <v>131</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E62" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="62" spans="2:5">
-      <c r="C62" t="s">
-        <v>147</v>
-      </c>
-      <c r="D62" t="s">
+    <row r="63" spans="2:5">
+      <c r="D63" t="s">
         <v>133</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E63" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="63" spans="2:5">
-      <c r="C63" t="s">
-        <v>147</v>
-      </c>
-      <c r="D63" t="s">
+    <row r="64" spans="2:5">
+      <c r="D64" t="s">
         <v>135</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E64" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="64" spans="2:5">
-      <c r="C64" t="s">
-        <v>147</v>
-      </c>
-      <c r="D64" t="s">
+    <row r="65" spans="4:5">
+      <c r="D65" t="s">
         <v>138</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E65" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="65" spans="3:5">
-      <c r="C65" t="s">
-        <v>147</v>
-      </c>
-      <c r="D65" t="s">
+    <row r="66" spans="4:5">
+      <c r="D66" t="s">
         <v>141</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E66" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="66" spans="3:5">
-      <c r="C66" t="s">
-        <v>147</v>
-      </c>
-      <c r="D66" t="s">
+    <row r="67" spans="4:5">
+      <c r="D67" t="s">
         <v>143</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E67" s="1" t="s">
         <v>142</v>
       </c>
     </row>
